--- a/0_taxon_sampling/AB_TEX_LL_dish_info.xlsx
+++ b/0_taxon_sampling/AB_TEX_LL_dish_info.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>DISH NO</t>
   </si>
@@ -731,6 +731,12 @@
   </si>
   <si>
     <t>GH02</t>
+  </si>
+  <si>
+    <t>L70</t>
+  </si>
+  <si>
+    <t>AB064</t>
   </si>
 </sst>
 </file>
@@ -772,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -784,6 +790,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1962,8 +1971,12 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+      <c r="A121" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>241</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
